--- a/public/tamplate/daftar_kelas.xlsx
+++ b/public/tamplate/daftar_kelas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Kelas_id</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>12 AGAMA</t>
+  </si>
+  <si>
+    <t>Guru</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,27 +549,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,39 +593,39 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +633,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,27 +657,27 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,39 +701,39 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -738,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,27 +765,27 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +793,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +801,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,18 +809,26 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>36</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>37</v>
       </c>
     </row>
